--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2082.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2082.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.154332803842228</v>
+        <v>1.888795852661133</v>
       </c>
       <c r="B1">
-        <v>3.736931739829842</v>
+        <v>3.51558780670166</v>
       </c>
       <c r="C1">
-        <v>3.530309096594001</v>
+        <v>3.087420701980591</v>
       </c>
       <c r="D1">
-        <v>3.697568184424807</v>
+        <v>3.353963851928711</v>
       </c>
       <c r="E1">
-        <v>1.191668620366835</v>
+        <v>1.875334501266479</v>
       </c>
     </row>
   </sheetData>
